--- a/lester/Resampling Visulisations.xlsx
+++ b/lester/Resampling Visulisations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/My Passport/Lester/IVLE/DBA4761/FInal Project/bitcoin-forecasting/lester/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E76E31-B6DC-A640-9489-0315B5B48420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE56411-283E-6E49-82B6-BCD8B4507C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{28EEB255-7D3A-4744-8BE5-BAE11EA29624}"/>
+    <workbookView xWindow="520" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{28EEB255-7D3A-4744-8BE5-BAE11EA29624}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,6 +281,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,12 +295,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -619,7 +619,7 @@
   <dimension ref="A2:AK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,48 +630,48 @@
   <sheetData>
     <row r="2" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15">
+      <c r="B3" s="17">
         <v>2018</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="15">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="17">
         <v>2019</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="15">
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="17">
         <v>2020</v>
       </c>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="17"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="19"/>
     </row>
     <row r="4" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -784,41 +784,41 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
       <c r="AK5" s="6"/>
     </row>
     <row r="6" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/lester/Resampling Visulisations.xlsx
+++ b/lester/Resampling Visulisations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/My Passport/Lester/IVLE/DBA4761/FInal Project/bitcoin-forecasting/lester/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE56411-283E-6E49-82B6-BCD8B4507C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3EEC53-6BFA-424B-860B-4CA42C6CA1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{28EEB255-7D3A-4744-8BE5-BAE11EA29624}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>Jan</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>For parameter tuning</t>
-  </si>
-  <si>
-    <t>See how the model learns new data with the same model parameters</t>
   </si>
   <si>
     <t>Analysis</t>
@@ -247,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -280,12 +277,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE4B918-955B-5243-B828-55D65AA2C9A5}">
-  <dimension ref="A2:AK35"/>
+  <dimension ref="A2:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,48 +621,48 @@
   <sheetData>
     <row r="2" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>2018</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="17">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="15">
         <v>2019</v>
       </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="17">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="15">
         <v>2020</v>
       </c>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="19"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="17"/>
     </row>
     <row r="4" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -782,108 +773,110 @@
       </c>
       <c r="AK4" s="11"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="6"/>
-    </row>
-    <row r="6" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="6"/>
-    </row>
-    <row r="7" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="5" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="3"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -914,11 +907,14 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="3"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -948,11 +944,15 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="3"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -981,11 +981,16 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="3"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1013,12 +1018,17 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="4"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1045,17 +1055,20 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
-        <v>6</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1079,14 +1092,19 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1111,15 +1129,20 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="3"/>
       <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1143,16 +1166,21 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="3"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1175,17 +1203,22 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1207,85 +1240,52 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="3"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
-        <v>11</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>12</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1296,212 +1296,100 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="24" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="6"/>
+    </row>
+    <row r="25" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
         <v>1</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="3"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
-        <v>2</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="3"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
-        <v>3</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="3"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
-        <v>4</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="4"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
-        <v>5</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>6</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -1531,13 +1419,10 @@
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1568,14 +1453,10 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1605,15 +1486,10 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="3"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1643,15 +1519,10 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1681,17 +1552,14 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <v>11</v>
-      </c>
-      <c r="B31" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -1719,15 +1587,10 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1757,62 +1620,179 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="C35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>8</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>9</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>10</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>11</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>12</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="B24:AE24"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="N3:Y3"/>
     <mergeCell ref="Z3:AK3"/>
-    <mergeCell ref="B6:AE6"/>
-    <mergeCell ref="AF6:AJ6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
